--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7EF8FC-4493-48F3-8E7E-52F79C5C2FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0B9E9-0BA2-4507-BAA8-8283ACC4BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>Problem</t>
   </si>
@@ -239,13 +239,28 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>Diagnoal Traverse</t>
+  </si>
+  <si>
+    <t>2-D array</t>
+  </si>
+  <si>
+    <t>Add_Binary</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Strtr - M * N Brute Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,19 +268,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -274,8 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,403 +666,835 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53" t="s">
-        <v>67</v>
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
+    <sortCondition descending="1" ref="E2:E56"/>
+    <sortCondition descending="1" ref="D2:D56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0B9E9-0BA2-4507-BAA8-8283ACC4BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF67A30-FA98-4D53-950E-A36562610C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Problem</t>
   </si>
@@ -254,6 +257,27 @@
   </si>
   <si>
     <t>Strtr - M * N Brute Force</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Two_Sum_Sorted</t>
+  </si>
+  <si>
+    <t>Rotate_Array</t>
+  </si>
+  <si>
+    <t>Pascal Triangle ii</t>
+  </si>
+  <si>
+    <t>Array/Recursion/DP</t>
+  </si>
+  <si>
+    <t>Reverse_words_in_a_string</t>
+  </si>
+  <si>
+    <t>Reverse_words_in_a_string 2</t>
   </si>
 </sst>
 </file>
@@ -291,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,28 +338,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,11 +694,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -699,7 +710,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
@@ -714,9 +725,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2</v>
@@ -726,18 +739,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -748,94 +761,96 @@
         <v>69</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -843,9 +858,11 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>1</v>
@@ -856,9 +873,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>1</v>
@@ -869,7 +888,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -882,7 +901,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -895,7 +914,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -908,11 +927,9 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>1</v>
@@ -923,11 +940,9 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>1</v>
@@ -938,11 +953,9 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>1</v>
@@ -953,10 +966,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -968,10 +981,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -983,7 +996,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -998,10 +1011,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -1013,10 +1026,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -1028,10 +1041,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1043,7 +1056,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -1058,10 +1071,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1073,10 +1086,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
@@ -1088,10 +1101,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1103,9 +1116,11 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>1</v>
@@ -1116,10 +1131,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1131,10 +1146,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -1146,11 +1161,9 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>1</v>
@@ -1161,7 +1174,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -1176,7 +1189,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -1191,7 +1204,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
@@ -1206,10 +1219,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -1221,10 +1234,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
@@ -1236,10 +1249,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
@@ -1251,10 +1264,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
@@ -1266,10 +1279,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
@@ -1281,7 +1294,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>67</v>
@@ -1296,7 +1309,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>67</v>
@@ -1311,7 +1324,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>67</v>
@@ -1326,7 +1339,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>67</v>
@@ -1341,7 +1354,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>67</v>
@@ -1356,7 +1369,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>67</v>
@@ -1371,7 +1384,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
@@ -1386,7 +1399,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>67</v>
@@ -1401,7 +1414,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>67</v>
@@ -1416,7 +1429,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>67</v>
@@ -1431,7 +1444,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>67</v>
@@ -1446,7 +1459,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>67</v>
@@ -1461,7 +1474,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>67</v>
@@ -1475,24 +1488,103 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
-    <sortCondition descending="1" ref="E2:E56"/>
-    <sortCondition descending="1" ref="D2:D56"/>
+  <autoFilter ref="D1:E1" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E61">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:E1">
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF67A30-FA98-4D53-950E-A36562610C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5E859-E398-49FE-BB1A-1236A0102A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Problem</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Reverse_words_in_a_string 2</t>
+  </si>
+  <si>
+    <t>Unique_Value_Trees</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -338,15 +341,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,6 +1592,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:E1" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E61">

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5E859-E398-49FE-BB1A-1236A0102A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77BCC5-A64F-4097-B58E-11E06EBA7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Problem</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>Unique_Value_Trees</t>
+  </si>
+  <si>
+    <t>Unique_Binary_Tree_with_inorder_and_postorder</t>
+  </si>
+  <si>
+    <t>Unique_Binary_tree_with_inorder_and_preorder</t>
+  </si>
+  <si>
+    <t>LCA of Binary_tree</t>
   </si>
 </sst>
 </file>
@@ -318,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,27 +350,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1593,16 +1590,62 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="4">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="C62" s="1"/>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77BCC5-A64F-4097-B58E-11E06EBA7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE327B-9854-4E09-990C-4DA4C2DE7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Problem</t>
   </si>
@@ -290,6 +290,33 @@
   </si>
   <si>
     <t>LCA of Binary_tree</t>
+  </si>
+  <si>
+    <t>Design a LinkedList</t>
+  </si>
+  <si>
+    <t>Linked_list_start_of_cycle</t>
+  </si>
+  <si>
+    <t>Intersection_of_two_linked_lists</t>
+  </si>
+  <si>
+    <t>Remove Nth node from end of linked list</t>
+  </si>
+  <si>
+    <t>Remove_Node_With_Given_Val</t>
+  </si>
+  <si>
+    <t>OddEven</t>
+  </si>
+  <si>
+    <t>Design a Doubly LinkedList</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Insert in a sorted circular linked list</t>
   </si>
 </sst>
 </file>
@@ -313,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +353,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -350,15 +383,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +734,7 @@
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -720,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -729,13 +775,14 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -747,10 +794,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -765,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -780,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -795,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
@@ -810,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
@@ -825,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,10 +1256,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1646,6 +1694,138 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE327B-9854-4E09-990C-4DA4C2DE7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782557E-8F12-4777-83BD-A47D60EBE6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Problem</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Level Order</t>
   </si>
   <si>
-    <t>Max_Detph</t>
-  </si>
-  <si>
     <t>PostOrder Iterative</t>
   </si>
   <si>
@@ -317,6 +314,21 @@
   </si>
   <si>
     <t>Insert in a sorted circular linked list</t>
+  </si>
+  <si>
+    <t>Flatten_Doubly_Linked_List</t>
+  </si>
+  <si>
+    <t>Pow(X, N)</t>
+  </si>
+  <si>
+    <t>Math/Recursion</t>
+  </si>
+  <si>
+    <t>Binary search tree</t>
+  </si>
+  <si>
+    <t>Max_Depth</t>
   </si>
 </sst>
 </file>
@@ -355,12 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -383,28 +395,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,7 +734,7 @@
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,46 +748,45 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -796,14 +795,13 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -813,12 +811,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
@@ -828,12 +826,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3">
@@ -843,12 +841,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -858,12 +856,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -873,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,12 +899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -916,12 +914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -931,52 +929,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>1</v>
@@ -987,9 +991,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>1</v>
@@ -1000,9 +1006,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>1</v>
@@ -1013,9 +1021,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>1</v>
@@ -1026,10 +1036,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -1040,26 +1050,26 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1071,10 +1081,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -1086,10 +1096,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -1101,10 +1111,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1116,10 +1126,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -1131,10 +1141,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1146,10 +1156,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
@@ -1161,10 +1171,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1176,10 +1186,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
@@ -1191,10 +1201,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1206,10 +1216,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -1221,7 +1231,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1234,10 +1244,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -1249,10 +1259,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
@@ -1264,10 +1274,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
@@ -1279,10 +1289,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
@@ -1294,10 +1304,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
@@ -1309,10 +1319,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
@@ -1324,10 +1334,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
@@ -1339,10 +1349,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
@@ -1354,10 +1364,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
@@ -1369,10 +1379,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -1384,10 +1394,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
@@ -1399,10 +1409,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -1414,10 +1424,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
@@ -1429,10 +1439,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
@@ -1444,10 +1454,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
@@ -1459,10 +1469,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
@@ -1474,10 +1484,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
@@ -1489,10 +1499,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -1504,10 +1514,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
@@ -1519,10 +1529,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
@@ -1534,10 +1544,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
@@ -1549,10 +1559,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
@@ -1564,10 +1574,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
@@ -1579,10 +1589,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
@@ -1594,10 +1604,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="3">
@@ -1609,10 +1619,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="3">
@@ -1624,10 +1634,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="3">
@@ -1639,10 +1649,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="3">
@@ -1654,10 +1664,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="3">
@@ -1669,10 +1679,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="3">
@@ -1684,10 +1694,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="3">
@@ -1699,10 +1709,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="3">
@@ -1714,10 +1724,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="3">
@@ -1729,10 +1739,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="3">
@@ -1744,10 +1754,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="3">
@@ -1759,10 +1769,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="3">
@@ -1774,10 +1784,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="3">
@@ -1788,44 +1798,77 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="B74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="5">
-        <v>3</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="B75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782557E-8F12-4777-83BD-A47D60EBE6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDDA4AB-57F4-4F8C-843C-8BE5E3A44597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,18 +782,18 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E979C-CB14-41E0-B853-A349D0839C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059AF1E1-5C5B-43A0-8E1B-0FF4ACAAC0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>Problem</t>
   </si>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>Grading Scheme</t>
+  </si>
+  <si>
+    <t>Sqrt(N)</t>
+  </si>
+  <si>
+    <t>Guess the number</t>
+  </si>
+  <si>
+    <t>Binaryt Search</t>
+  </si>
+  <si>
+    <t>Binary search</t>
+  </si>
+  <si>
+    <t>Search in a sorted rotated array</t>
+  </si>
+  <si>
+    <t>Find first bad version</t>
+  </si>
+  <si>
+    <t>Kth symbol in Grammer</t>
+  </si>
+  <si>
+    <t>Graph</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,11 +452,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -441,6 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,13 +901,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1627,6 +1663,58 @@
         <v>92</v>
       </c>
       <c r="C84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="8">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059AF1E1-5C5B-43A0-8E1B-0FF4ACAAC0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F971-A336-46C1-84AC-6E27E11902AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
+    <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Linked list</t>
   </si>
   <si>
-    <t>Is Cycle in Linked List</t>
-  </si>
-  <si>
     <t>Remove duplicates from Linked List</t>
   </si>
   <si>
@@ -361,10 +358,13 @@
     <t>Find first bad version</t>
   </si>
   <si>
-    <t>Kth symbol in Grammer</t>
-  </si>
-  <si>
     <t>Graph</t>
+  </si>
+  <si>
+    <t>Find minimum in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +428,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -452,17 +458,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -476,13 +471,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,32 +806,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -842,26 +842,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -869,96 +869,98 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -966,54 +968,54 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1021,10 +1023,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1032,225 +1034,227 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
+      <c r="A33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="A34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="A35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="A36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
+      <c r="C46" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>35</v>
@@ -1261,7 +1265,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1271,143 +1275,143 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="A52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
+      <c r="A53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="A54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="A55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="A56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="A57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="A58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="A59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="A60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1415,306 +1419,296 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="A63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="A65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="C73" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="A76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
+      <c r="A81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>104</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="8">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="8">
+      <c r="A88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1724,8 +1718,8 @@
       <sortCondition descending="1" ref="C9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9">
-    <sortCondition descending="1" ref="C9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C88">
+    <sortCondition ref="B10:B88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9F971-A336-46C1-84AC-6E27E11902AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D15828-7934-4BAA-AF23-04FC4A51997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>Problem</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>First first and last position of element in sorted array</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Find K closest elements in a sorted array</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,7 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,63 +1145,63 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="A37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3</v>
+      <c r="A38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
+      <c r="C41" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>69</v>
@@ -1210,84 +1212,84 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2</v>
+      <c r="C46" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1</v>
+      <c r="C49" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>35</v>
@@ -1297,41 +1299,41 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="3">
-        <v>1</v>
+      <c r="C52" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="3">
-        <v>2</v>
+      <c r="C53" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
@@ -1342,7 +1344,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>35</v>
@@ -1353,18 +1355,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>35</v>
@@ -1375,7 +1377,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -1386,7 +1388,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -1397,7 +1399,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -1407,33 +1409,33 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="A61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -1441,73 +1443,73 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="A66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="C69" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>19</v>
@@ -1518,7 +1520,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>19</v>
@@ -1529,128 +1531,128 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C76" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C77" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C78" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
+      <c r="A80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="4">
-        <v>2</v>
+      <c r="A81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>67</v>
@@ -1660,30 +1662,30 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
+      <c r="C84" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
+      <c r="C85" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>67</v>
@@ -1694,21 +1696,54 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1718,8 +1753,8 @@
       <sortCondition descending="1" ref="C9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C88">
-    <sortCondition ref="B10:B88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C91">
+    <sortCondition ref="B10:B91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D15828-7934-4BAA-AF23-04FC4A51997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEF815C-CCDF-46CA-82B7-BEB0BE38CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>Problem</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>Find K closest elements in a sorted array</t>
+  </si>
+  <si>
+    <t>Closest value in a binary search tree</t>
+  </si>
+  <si>
+    <t>Smallest Letter Greater than Target</t>
+  </si>
+  <si>
+    <t>Find minimum in a rotated sorted array with duplicates</t>
+  </si>
+  <si>
+    <t>Find duplicate element in an array of 1 to N + 1 elements</t>
   </si>
 </sst>
 </file>
@@ -793,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,46 +915,46 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1069,29 +1081,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
@@ -1101,11 +1113,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>103</v>
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1113,18 +1125,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>103</v>
@@ -1135,10 +1147,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1146,7 +1158,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>108</v>
@@ -1157,7 +1169,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>108</v>
@@ -1168,7 +1180,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>108</v>
@@ -1178,217 +1190,217 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3</v>
+      <c r="A41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
+      <c r="C45" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -1399,7 +1411,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -1410,18 +1422,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>35</v>
@@ -1432,7 +1444,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>35</v>
@@ -1442,253 +1454,253 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="A64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="A65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="A67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="A68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="7">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="A71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="C74" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="4">
-        <v>2</v>
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>16</v>
+      <c r="A77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>16</v>
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="4">
-        <v>2</v>
+      <c r="C84" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -1696,7 +1708,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>67</v>
@@ -1707,7 +1719,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>67</v>
@@ -1717,33 +1729,88 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="1">
-        <v>1</v>
+      <c r="C89" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="3">
-        <v>1</v>
+      <c r="C90" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1753,8 +1820,8 @@
       <sortCondition descending="1" ref="C9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C91">
-    <sortCondition ref="B10:B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C96">
+    <sortCondition ref="B10:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEF815C-CCDF-46CA-82B7-BEB0BE38CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07186A88-0010-4E4B-A66D-EC9EE5C14ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -445,7 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,68 +871,68 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -944,39 +944,39 @@
         <v>63</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1223,35 +1223,35 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1322,68 +1322,68 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1553,101 +1553,101 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="B82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1669,84 +1669,84 @@
       <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>3</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07186A88-0010-4E4B-A66D-EC9EE5C14ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767756D-6BEC-4CF6-B74F-20352DCF79E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
   <si>
     <t>Problem</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>Find duplicate element in an array of 1 to N + 1 elements</t>
+  </si>
+  <si>
+    <t>Implement a Trie</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Design Add and search words data structure</t>
+  </si>
+  <si>
+    <t>Replace words</t>
   </si>
 </sst>
 </file>
@@ -424,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +461,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -473,11 +491,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -486,6 +515,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +990,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1344,36 +1375,36 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="3">
-        <v>2</v>
+      <c r="C54" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
+      <c r="C55" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
+      <c r="C56" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1394,8 +1425,8 @@
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
+      <c r="C58" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,7 +1448,7 @@
         <v>35</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1439,7 +1470,7 @@
         <v>35</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1450,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1461,7 +1492,7 @@
         <v>35</v>
       </c>
       <c r="C64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1472,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1483,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1494,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1505,7 +1536,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1515,8 +1546,8 @@
       <c r="B69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
+      <c r="C69" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,8 +1557,8 @@
       <c r="B70" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
+      <c r="C70" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1538,7 +1569,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,8 +1579,8 @@
       <c r="B72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
+      <c r="C72" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1560,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="C73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1571,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="C74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1582,7 +1613,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1593,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1604,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="C77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1615,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1626,7 +1657,7 @@
         <v>19</v>
       </c>
       <c r="C79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1637,7 +1668,7 @@
         <v>22</v>
       </c>
       <c r="C80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1681,7 +1712,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1703,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1714,7 +1745,7 @@
         <v>67</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1725,7 +1756,7 @@
         <v>67</v>
       </c>
       <c r="C88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1747,7 +1778,7 @@
         <v>67</v>
       </c>
       <c r="C90" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1757,8 +1788,8 @@
       <c r="B91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="1">
-        <v>1</v>
+      <c r="C91" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1768,8 +1799,8 @@
       <c r="B92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="1">
-        <v>1</v>
+      <c r="C92" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1779,8 +1810,8 @@
       <c r="B93" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="1">
-        <v>1</v>
+      <c r="C93" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1790,8 +1821,8 @@
       <c r="B94" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="1">
-        <v>1</v>
+      <c r="C94" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1802,7 +1833,7 @@
         <v>67</v>
       </c>
       <c r="C95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1810,7 +1841,40 @@
         <v>33</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="8">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767756D-6BEC-4CF6-B74F-20352DCF79E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8FE47-4CB4-40E3-9F60-7906ACFB8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>Problem</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>Replace words</t>
+  </si>
+  <si>
+    <t>Design autocomplete search word system</t>
+  </si>
+  <si>
+    <t>Word_search_ii</t>
   </si>
 </sst>
 </file>
@@ -515,8 +521,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +996,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1408,24 +1414,24 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1857,24 +1863,46 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8FE47-4CB4-40E3-9F60-7906ACFB8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E75C5D9-EE4A-4C4B-8186-48E7D037D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
   <si>
     <t>Problem</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>Word_search_ii</t>
+  </si>
+  <si>
+    <t>Number_of_provinces</t>
+  </si>
+  <si>
+    <t>Valid_Tree</t>
+  </si>
+  <si>
+    <t>Number_of_connected_components</t>
+  </si>
+  <si>
+    <t>Container with most water</t>
   </si>
 </sst>
 </file>
@@ -842,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,19 +920,19 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>63</v>
@@ -931,18 +943,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>63</v>
@@ -953,84 +965,84 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>63</v>
@@ -1041,7 +1053,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
@@ -1052,7 +1064,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>63</v>
@@ -1063,7 +1075,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>63</v>
@@ -1074,7 +1086,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>63</v>
@@ -1085,29 +1097,29 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>63</v>
@@ -1118,40 +1130,40 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -1161,11 +1173,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>103</v>
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1173,18 +1185,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>103</v>
@@ -1195,10 +1207,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1206,7 +1218,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>108</v>
@@ -1217,7 +1229,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>108</v>
@@ -1228,7 +1240,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>108</v>
@@ -1239,32 +1251,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1272,7 +1284,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>92</v>
@@ -1283,40 +1295,40 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>69</v>
@@ -1327,21 +1339,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -1349,21 +1361,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -1371,40 +1383,40 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3</v>
+      <c r="C54" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>35</v>
@@ -1415,7 +1427,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>35</v>
@@ -1425,96 +1437,96 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="C59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="C61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="C63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="C65" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>35</v>
@@ -1525,7 +1537,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>35</v>
@@ -1536,7 +1548,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>35</v>
@@ -1546,11 +1558,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>44</v>
+      <c r="A69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -1558,43 +1570,43 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -1602,10 +1614,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
@@ -1613,7 +1625,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>19</v>
@@ -1624,7 +1636,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>19</v>
@@ -1635,7 +1647,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>19</v>
@@ -1646,7 +1658,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>19</v>
@@ -1657,7 +1669,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>19</v>
@@ -1668,10 +1680,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C80" s="3">
         <v>2</v>
@@ -1679,10 +1691,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C81" s="3">
         <v>2</v>
@@ -1690,7 +1702,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>16</v>
@@ -1701,7 +1713,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>16</v>
@@ -1712,7 +1724,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>16</v>
@@ -1723,7 +1735,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>16</v>
@@ -1734,7 +1746,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>16</v>
@@ -1745,10 +1757,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C87" s="3">
         <v>2</v>
@@ -1756,7 +1768,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>67</v>
@@ -1767,7 +1779,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>67</v>
@@ -1778,7 +1790,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>67</v>
@@ -1788,10 +1800,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="3">
@@ -1800,7 +1812,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>67</v>
@@ -1811,7 +1823,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>67</v>
@@ -1822,7 +1834,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>67</v>
@@ -1833,7 +1845,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>67</v>
@@ -1844,38 +1856,38 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>117</v>
@@ -1886,7 +1898,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>117</v>
@@ -1896,13 +1908,57 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1912,8 +1968,8 @@
       <sortCondition descending="1" ref="C9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C96">
-    <sortCondition ref="B10:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C97">
+    <sortCondition ref="B10:B97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Leet_Coding/LeetCode_to_revisit.xlsx
+++ b/Leet_Coding/LeetCode_to_revisit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghatnekar\DEVP\Self_Practice\competitive-programming\Leet_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E75C5D9-EE4A-4C4B-8186-48E7D037D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363022C2-696B-405F-B8A5-43E4408394C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{151E93C1-2929-4C43-AC3B-99335C268DE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>Problem</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Container with most water</t>
+  </si>
+  <si>
+    <t>Number of zero filled sub-arrays</t>
+  </si>
+  <si>
+    <t>Delete Middle Node of Linkedlist</t>
   </si>
 </sst>
 </file>
@@ -854,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C441E-AF6E-488F-B6E7-EAB07CF23E56}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1569,11 +1575,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>44</v>
+      <c r="A70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
@@ -1581,43 +1587,43 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C73" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
@@ -1625,10 +1631,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C75" s="3">
         <v>2</v>
@@ -1636,7 +1642,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>19</v>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>19</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>19</v>
@@ -1669,7 +1675,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>19</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>19</v>
@@ -1691,10 +1697,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C81" s="3">
         <v>2</v>
@@ -1702,10 +1708,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C82" s="3">
         <v>2</v>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>16</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>16</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>16</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>16</v>
@@ -1757,7 +1763,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>16</v>
@@ -1768,10 +1774,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
@@ -1779,7 +1785,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>67</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>67</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>67</v>
@@ -1811,10 +1817,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C92" s="3">
@@ -1823,7 +1829,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>67</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>67</v>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>67</v>
@@ -1856,7 +1862,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>67</v>
@@ -1867,38 +1873,38 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>117</v>
@@ -1909,7 +1915,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>117</v>
@@ -1919,22 +1925,22 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="A102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C103" s="9">
         <v>1</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>106</v>
@@ -1953,12 +1959,34 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1968,8 +1996,8 @@
       <sortCondition descending="1" ref="C9"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C97">
-    <sortCondition ref="B10:B97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C98">
+    <sortCondition ref="B10:B98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
